--- a/EstudiantesIntermedio1Ed.xlsx
+++ b/EstudiantesIntermedio1Ed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54c0f6d37314c5f9/Documentos/HN Biology Investigation/Cursos/Analisis estadisticos 2023/Curso Intermedio/Primera Edición/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf7fb70a77b1475/HN_Biology_Investigation/CURSOS/R_intermedio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{6F5F136F-F206-4B1E-9256-5968032AFC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4128CC8-8835-438C-B333-5CB5B027E293}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{6F5F136F-F206-4B1E-9256-5968032AFC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06EE6282-3E41-4D3D-A98F-543EFECACA75}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="16220" windowHeight="8620" xr2:uid="{CB83BDE4-1CD2-4B0C-91E1-7E706205C268}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CB83BDE4-1CD2-4B0C-91E1-7E706205C268}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -545,18 +545,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718E92EA-F0EA-4100-B214-954E8DA2BAA0}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.6328125" customWidth="1"/>
-    <col min="2" max="2" width="35.08984375" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -584,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -626,7 +626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -654,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -682,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -696,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -724,7 +724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -746,7 +746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -760,7 +760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -774,7 +774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
